--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2326408.853586498</v>
+        <v>-2326845.169260944</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996847</v>
+        <v>218615.8834996846</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736557</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>150.3210407035602</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.53450790348467</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -738,19 +738,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>111.1874821532706</v>
+        <v>92.88887487188188</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12.59665167322031</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>82.43216989169808</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>138.3740492694579</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>230.9660999725972</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>20.9352525776997</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>54.68924956019355</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>82.43216989169798</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>120.3477779278798</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>236.6845940680869</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1218,19 +1218,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>39.11655016295389</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>19.18172622600087</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>11.57315202520407</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>12.59665167322035</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.2086467078059</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
-        <v>97.5339520783659</v>
+        <v>268.332925335277</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G11" t="n">
         <v>320.0484892653209</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.19456938825898</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091658</v>
+        <v>93.46222820091661</v>
       </c>
       <c r="T11" t="n">
         <v>130.220899391266</v>
@@ -1427,16 +1427,16 @@
         <v>160.4420255081129</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.02535242790354</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.3360937307955</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673258</v>
+        <v>56.1321061567326</v>
       </c>
       <c r="S13" t="n">
         <v>119.6782075553163</v>
       </c>
       <c r="T13" t="n">
-        <v>138.9527062374449</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
-        <v>192.4238797007581</v>
+        <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821286</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
         <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>137.045482048545</v>
+        <v>82.83201626205067</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.39614271522692</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.208646707806</v>
+        <v>298.2086467078061</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654877</v>
+        <v>286.2199636654878</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2012677100157</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>61.18660424541206</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>320.048489265321</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825897</v>
+        <v>79.19456938825905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091661</v>
+        <v>93.46222820091667</v>
       </c>
       <c r="T14" t="n">
         <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>241.7150239479852</v>
       </c>
       <c r="W14" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586886</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548874</v>
+        <v>252.3232405818048</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I15" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.81188664140931</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548199</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.1321061567326</v>
+        <v>56.13210615673266</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553163</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
-        <v>138.952706237445</v>
+        <v>138.9527062374451</v>
       </c>
       <c r="U16" t="n">
         <v>192.4238797007582</v>
@@ -1825,13 +1825,13 @@
         <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X16" t="n">
-        <v>137.045482048545</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9203498046127</v>
+        <v>90.0855196205388</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>224.7087975524973</v>
       </c>
       <c r="F17" t="n">
-        <v>243.8806136404751</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G17" t="n">
         <v>245.8138815378969</v>
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>192.780515698518</v>
       </c>
       <c r="X20" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312648</v>
       </c>
       <c r="Y20" t="n">
         <v>223.4773717274634</v>
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>122.8847593541863</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612603</v>
+        <v>261.4420352612602</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189421</v>
+        <v>249.453352218942</v>
       </c>
       <c r="D26" t="n">
         <v>240.43465626347</v>
@@ -2570,10 +2570,10 @@
         <v>283.2818778187752</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970852</v>
+        <v>200.8319927970851</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171332</v>
+        <v>42.42795794171326</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437095</v>
+        <v>56.69561675437089</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472031</v>
+        <v>93.45428794472025</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615673</v>
+        <v>123.6754140615672</v>
       </c>
       <c r="V26" t="n">
         <v>204.9484125014394</v>
@@ -2618,7 +2618,7 @@
         <v>230.2485119793963</v>
       </c>
       <c r="X26" t="n">
-        <v>249.548770212143</v>
+        <v>249.5487702121429</v>
       </c>
       <c r="Y26" t="n">
         <v>260.9453680083417</v>
@@ -2643,13 +2643,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>118.781368784121</v>
       </c>
       <c r="G27" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>84.37298759326558</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595739</v>
+        <v>53.05874613595734</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135787</v>
+        <v>39.25874098135782</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893626</v>
+        <v>22.88010537893621</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471571</v>
+        <v>21.82785523471566</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290202</v>
+        <v>22.29477956290197</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424986</v>
+        <v>38.5694822842498</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694028</v>
+        <v>29.11784990694022</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176963</v>
+        <v>14.09994509176957</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018694</v>
+        <v>19.36549471018688</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877068</v>
+        <v>82.91159610877062</v>
       </c>
       <c r="T28" t="n">
         <v>102.1860947908993</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542125</v>
+        <v>155.6572682542124</v>
       </c>
       <c r="V28" t="n">
-        <v>129.466882535583</v>
+        <v>129.4668825355829</v>
       </c>
       <c r="W28" t="n">
         <v>154.6337686061962</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019994</v>
+        <v>100.2788706019993</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806705</v>
+        <v>91.15373835806699</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>261.4420352612602</v>
       </c>
       <c r="C29" t="n">
-        <v>249.453352218942</v>
+        <v>249.4533522189419</v>
       </c>
       <c r="D29" t="n">
-        <v>240.43465626347</v>
+        <v>240.4346562634699</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333755</v>
+        <v>262.1767938333754</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213527</v>
+        <v>281.3486099213526</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187752</v>
+        <v>283.2818778187751</v>
       </c>
       <c r="H29" t="n">
         <v>200.8319927970851</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171326</v>
+        <v>42.4279579417132</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437089</v>
+        <v>56.69561675437083</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472025</v>
+        <v>93.45428794472019</v>
       </c>
       <c r="U29" t="n">
         <v>123.6754140615672</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014394</v>
+        <v>204.9484125014393</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793963</v>
+        <v>230.2485119793962</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121429</v>
+        <v>249.5487702121428</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083417</v>
+        <v>260.9453680083416</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595734</v>
+        <v>53.05874613595728</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135782</v>
+        <v>39.25874098135776</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893621</v>
+        <v>22.88010537893615</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471566</v>
+        <v>21.8278552347156</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290197</v>
+        <v>22.29477956290191</v>
       </c>
       <c r="G31" t="n">
-        <v>38.5694822842498</v>
+        <v>38.56948228424974</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694022</v>
+        <v>29.11784990694017</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176957</v>
+        <v>14.09994509176951</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018688</v>
+        <v>19.36549471018682</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877062</v>
+        <v>82.91159610877057</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908993</v>
+        <v>102.1860947908992</v>
       </c>
       <c r="U31" t="n">
         <v>155.6572682542124</v>
@@ -3010,13 +3010,13 @@
         <v>129.4668825355829</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061962</v>
+        <v>154.6337686061961</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019993</v>
+        <v>100.2788706019992</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806699</v>
+        <v>91.15373835806693</v>
       </c>
     </row>
     <row r="32">
@@ -3117,10 +3117,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>118.781368784121</v>
       </c>
       <c r="G33" t="n">
-        <v>112.8757236914449</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
@@ -3360,10 +3360,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>84.37298759326566</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I39" t="n">
-        <v>53.13297117133634</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349228</v>
       </c>
       <c r="T41" t="n">
         <v>55.986291663842</v>
@@ -3822,10 +3822,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541868</v>
       </c>
       <c r="E42" t="n">
-        <v>130.9922385581942</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.974038980382</v>
+        <v>223.9740389803821</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G44" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835063</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>19.22762047349228</v>
       </c>
       <c r="T44" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384205</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068901</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W44" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="45">
@@ -4065,10 +4065,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G45" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507914</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479621</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371605</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789237</v>
+        <v>45.44359982789243</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002106</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470467</v>
+        <v>91.99888625470473</v>
       </c>
       <c r="W46" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112105</v>
+        <v>62.8108743211211</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718879</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>434.5133569969072</v>
+        <v>608.3145471721251</v>
       </c>
       <c r="C2" t="n">
-        <v>434.5133569969072</v>
+        <v>608.3145471721251</v>
       </c>
       <c r="D2" t="n">
-        <v>61.68939222413074</v>
+        <v>456.4751121180239</v>
       </c>
       <c r="E2" t="n">
         <v>61.68939222413074</v>
       </c>
       <c r="F2" t="n">
-        <v>51.57860557470512</v>
+        <v>51.57860557470513</v>
       </c>
       <c r="G2" t="n">
         <v>39.51502306929716</v>
@@ -4331,13 +4331,13 @@
         <v>39.51502306929716</v>
       </c>
       <c r="K2" t="n">
-        <v>228.7015208236839</v>
+        <v>228.7015208236843</v>
       </c>
       <c r="L2" t="n">
-        <v>576.5868939086301</v>
+        <v>576.5868939086306</v>
       </c>
       <c r="M2" t="n">
-        <v>969.826060161718</v>
+        <v>969.8260601617185</v>
       </c>
       <c r="N2" t="n">
         <v>1348.157418849434</v>
@@ -4352,28 +4352,28 @@
         <v>1975.751153464858</v>
       </c>
       <c r="R2" t="n">
-        <v>1885.112866960711</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="S2" t="n">
-        <v>1885.112866960711</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="T2" t="n">
-        <v>1885.112866960711</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="U2" t="n">
-        <v>1630.227530674705</v>
+        <v>1720.865817178852</v>
       </c>
       <c r="V2" t="n">
-        <v>1630.227530674705</v>
+        <v>1383.886543074794</v>
       </c>
       <c r="W2" t="n">
-        <v>1267.692600532306</v>
+        <v>1383.886543074794</v>
       </c>
       <c r="X2" t="n">
-        <v>885.6624600537998</v>
+        <v>1001.856402596287</v>
       </c>
       <c r="Y2" t="n">
-        <v>828.5568965149264</v>
+        <v>608.3145471721251</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>528.9395791150168</v>
+        <v>336.418252764596</v>
       </c>
       <c r="C3" t="n">
-        <v>367.2359063559716</v>
+        <v>336.418252764596</v>
       </c>
       <c r="D3" t="n">
-        <v>367.2359063559716</v>
+        <v>336.418252764596</v>
       </c>
       <c r="E3" t="n">
-        <v>220.2078964128428</v>
+        <v>336.418252764596</v>
       </c>
       <c r="F3" t="n">
-        <v>220.2078964128428</v>
+        <v>201.7244547144704</v>
       </c>
       <c r="G3" t="n">
         <v>107.8973083792362</v>
@@ -4413,16 +4413,16 @@
         <v>39.51502306929716</v>
       </c>
       <c r="L3" t="n">
-        <v>405.3368682394128</v>
+        <v>149.6518896266371</v>
       </c>
       <c r="M3" t="n">
-        <v>634.6852431368632</v>
+        <v>634.6852431368635</v>
       </c>
       <c r="N3" t="n">
         <v>1123.683653619416</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.883604403566</v>
+        <v>1515.883604403567</v>
       </c>
       <c r="P3" t="n">
         <v>1817.979523679264</v>
@@ -4437,22 +4437,22 @@
         <v>1763.167397572544</v>
       </c>
       <c r="T3" t="n">
-        <v>1574.482293738529</v>
+        <v>1574.48229373853</v>
       </c>
       <c r="U3" t="n">
-        <v>1355.987501336839</v>
+        <v>1355.98750133684</v>
       </c>
       <c r="V3" t="n">
-        <v>1127.591878785173</v>
+        <v>1127.591878785174</v>
       </c>
       <c r="W3" t="n">
-        <v>886.2760100184831</v>
+        <v>886.2760100184836</v>
       </c>
       <c r="X3" t="n">
-        <v>688.3590218962777</v>
+        <v>688.3590218962781</v>
       </c>
       <c r="Y3" t="n">
-        <v>688.3590218962777</v>
+        <v>495.8376955458569</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.23891364830757</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="C4" t="n">
         <v>39.51502306929716</v>
@@ -4489,7 +4489,7 @@
         <v>39.51502306929716</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394057</v>
+        <v>73.11921081394058</v>
       </c>
       <c r="L4" t="n">
         <v>173.7262902142001</v>
@@ -4501,37 +4501,37 @@
         <v>410.1421380914022</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870918</v>
+        <v>508.6057845870919</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152296</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152296</v>
+        <v>533.0369269689187</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152296</v>
+        <v>383.5151455832969</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152296</v>
+        <v>383.5151455832969</v>
       </c>
       <c r="T4" t="n">
-        <v>338.3953151309084</v>
+        <v>383.5151455832969</v>
       </c>
       <c r="U4" t="n">
-        <v>338.3953151309084</v>
+        <v>383.5151455832969</v>
       </c>
       <c r="V4" t="n">
-        <v>338.3953151309084</v>
+        <v>122.7798411417195</v>
       </c>
       <c r="W4" t="n">
-        <v>52.23891364830757</v>
+        <v>122.7798411417195</v>
       </c>
       <c r="X4" t="n">
-        <v>52.23891364830757</v>
+        <v>122.7798411417195</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.23891364830757</v>
+        <v>39.51502306929716</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1129.03608139415</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="C5" t="n">
-        <v>747.1023227269575</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="D5" t="n">
-        <v>374.278357954181</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="E5" t="n">
-        <v>374.278357954181</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="F5" t="n">
-        <v>364.1675713047554</v>
+        <v>384.3998799773959</v>
       </c>
       <c r="G5" t="n">
-        <v>352.1039887993475</v>
+        <v>372.3362974719879</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I5" t="n">
         <v>39.51502306929716</v>
       </c>
       <c r="J5" t="n">
-        <v>39.51502306929716</v>
+        <v>111.5135673421028</v>
       </c>
       <c r="K5" t="n">
-        <v>228.7015208236839</v>
+        <v>351.6539393868856</v>
       </c>
       <c r="L5" t="n">
-        <v>576.5868939086301</v>
+        <v>576.5868939086306</v>
       </c>
       <c r="M5" t="n">
-        <v>969.826060161718</v>
+        <v>969.8260601617185</v>
       </c>
       <c r="N5" t="n">
         <v>1348.157418849434</v>
@@ -4589,28 +4589,28 @@
         <v>1975.751153464858</v>
       </c>
       <c r="R5" t="n">
-        <v>1885.112866960711</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="S5" t="n">
-        <v>1885.112866960711</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="T5" t="n">
-        <v>1885.112866960711</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="U5" t="n">
-        <v>1885.112866960711</v>
+        <v>1720.865817178852</v>
       </c>
       <c r="V5" t="n">
-        <v>1885.112866960711</v>
+        <v>1383.886543074794</v>
       </c>
       <c r="W5" t="n">
-        <v>1522.577936818312</v>
+        <v>1021.351612932395</v>
       </c>
       <c r="X5" t="n">
-        <v>1522.577936818312</v>
+        <v>788.0525220509835</v>
       </c>
       <c r="Y5" t="n">
-        <v>1129.03608139415</v>
+        <v>394.5106666268215</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336.4182527645956</v>
+        <v>522.4924553088683</v>
       </c>
       <c r="C6" t="n">
-        <v>336.4182527645956</v>
+        <v>522.4924553088683</v>
       </c>
       <c r="D6" t="n">
-        <v>336.4182527645956</v>
+        <v>383.6538182990804</v>
       </c>
       <c r="E6" t="n">
-        <v>189.3902428214668</v>
+        <v>236.6258083559516</v>
       </c>
       <c r="F6" t="n">
-        <v>168.2435230460126</v>
+        <v>236.6258083559516</v>
       </c>
       <c r="G6" t="n">
-        <v>39.51502306929716</v>
+        <v>107.8973083792362</v>
       </c>
       <c r="H6" t="n">
-        <v>39.51502306929716</v>
+        <v>107.8973083792362</v>
       </c>
       <c r="I6" t="n">
         <v>39.51502306929716</v>
@@ -4650,16 +4650,16 @@
         <v>39.51502306929716</v>
       </c>
       <c r="L6" t="n">
-        <v>149.6518896266367</v>
+        <v>405.3368682394128</v>
       </c>
       <c r="M6" t="n">
-        <v>634.6852431368632</v>
+        <v>634.6852431368635</v>
       </c>
       <c r="N6" t="n">
         <v>1123.683653619416</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403566</v>
+        <v>1515.883604403567</v>
       </c>
       <c r="P6" t="n">
         <v>1817.979523679264</v>
@@ -4674,22 +4674,22 @@
         <v>1763.167397572544</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738529</v>
+        <v>1574.48229373853</v>
       </c>
       <c r="U6" t="n">
-        <v>1355.987501336839</v>
+        <v>1355.98750133684</v>
       </c>
       <c r="V6" t="n">
-        <v>1127.591878785173</v>
+        <v>1127.591878785174</v>
       </c>
       <c r="W6" t="n">
-        <v>886.2760100184831</v>
+        <v>1072.350212562756</v>
       </c>
       <c r="X6" t="n">
-        <v>688.3590218962777</v>
+        <v>874.4332244405504</v>
       </c>
       <c r="Y6" t="n">
-        <v>495.8376955458565</v>
+        <v>681.9118980901292</v>
       </c>
     </row>
     <row r="7">
@@ -4726,7 +4726,7 @@
         <v>39.51502306929716</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394057</v>
+        <v>73.11921081394058</v>
       </c>
       <c r="L7" t="n">
         <v>173.7262902142001</v>
@@ -4738,28 +4738,28 @@
         <v>410.1421380914022</v>
       </c>
       <c r="O7" t="n">
-        <v>508.6057845870918</v>
+        <v>508.6057845870919</v>
       </c>
       <c r="P7" t="n">
-        <v>571.5742683152296</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="Q7" t="n">
-        <v>533.0369269689186</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="R7" t="n">
-        <v>383.5151455832968</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="S7" t="n">
-        <v>383.5151455832968</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="T7" t="n">
-        <v>383.5151455832968</v>
+        <v>571.5742683152297</v>
       </c>
       <c r="U7" t="n">
-        <v>300.2503275108746</v>
+        <v>284.3840288043295</v>
       </c>
       <c r="V7" t="n">
-        <v>39.51502306929716</v>
+        <v>284.3840288043295</v>
       </c>
       <c r="W7" t="n">
         <v>39.51502306929716</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>397.0198996587235</v>
+        <v>1035.841947981534</v>
       </c>
       <c r="C8" t="n">
-        <v>397.0198996587235</v>
+        <v>1035.841947981534</v>
       </c>
       <c r="D8" t="n">
-        <v>397.0198996587235</v>
+        <v>1035.841947981534</v>
       </c>
       <c r="E8" t="n">
-        <v>397.0198996587235</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="F8" t="n">
-        <v>386.9091130092979</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G8" t="n">
-        <v>374.84553050389</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1786.215572286826</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U8" t="n">
-        <v>1786.215572286826</v>
+        <v>1792.420417641952</v>
       </c>
       <c r="V8" t="n">
-        <v>1786.215572286826</v>
+        <v>1792.420417641952</v>
       </c>
       <c r="W8" t="n">
-        <v>1423.680642144427</v>
+        <v>1429.885487499553</v>
       </c>
       <c r="X8" t="n">
-        <v>1184.605294600905</v>
+        <v>1429.885487499553</v>
       </c>
       <c r="Y8" t="n">
-        <v>791.0634391767427</v>
+        <v>1429.885487499553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>813.8206734913811</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C9" t="n">
-        <v>652.1170007323358</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D9" t="n">
-        <v>513.2783637225479</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>61.39973713756375</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4884,13 +4884,13 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>271.5148086613879</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>756.5481621716143</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
         <v>1249.145305214519</v>
@@ -4926,7 +4926,7 @@
         <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>813.8206734913811</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="D10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4987,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>561.3596107681212</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>328.1806575838001</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>328.1806575838001</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="V10" t="n">
-        <v>328.1806575838001</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>762.0121945733732</v>
+        <v>1877.821056731576</v>
       </c>
       <c r="C11" t="n">
-        <v>472.9011201637896</v>
+        <v>1588.709982321992</v>
       </c>
       <c r="D11" t="n">
-        <v>374.3819766502887</v>
+        <v>1317.66662339747</v>
       </c>
       <c r="E11" t="n">
-        <v>374.3819766502887</v>
+        <v>1015.703587761186</v>
       </c>
       <c r="F11" t="n">
-        <v>374.3819766502887</v>
+        <v>694.3750813289653</v>
       </c>
       <c r="G11" t="n">
-        <v>51.10067436208573</v>
+        <v>371.0937790407623</v>
       </c>
       <c r="H11" t="n">
-        <v>51.10067436208573</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="I11" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J11" t="n">
-        <v>201.8007338166305</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>441.9411058614133</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L11" t="n">
-        <v>880.8019917872422</v>
+        <v>802.100476605503</v>
       </c>
       <c r="M11" t="n">
-        <v>1365.016670881213</v>
+        <v>1276.182086278499</v>
       </c>
       <c r="N11" t="n">
-        <v>1834.323542409811</v>
+        <v>1745.488957807097</v>
       </c>
       <c r="O11" t="n">
-        <v>2139.328126882645</v>
+        <v>2141.469055120814</v>
       </c>
       <c r="P11" t="n">
-        <v>2367.485023338698</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q11" t="n">
-        <v>2552.892789866118</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
@@ -5075,16 +5075,16 @@
         <v>2167.028512952474</v>
       </c>
       <c r="V11" t="n">
-        <v>1922.871923106024</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="W11" t="n">
-        <v>1653.159677221234</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="X11" t="n">
-        <v>1363.952221000336</v>
+        <v>1877.821056731576</v>
       </c>
       <c r="Y11" t="n">
-        <v>1063.233049833783</v>
+        <v>1877.821056731576</v>
       </c>
     </row>
     <row r="12">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.1977387366269</v>
+        <v>127.8939596427962</v>
       </c>
       <c r="C13" t="n">
-        <v>127.1977387366269</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1977387366269</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E13" t="n">
-        <v>127.1977387366269</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F13" t="n">
-        <v>127.1977387366269</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="G13" t="n">
         <v>51.10067436208573</v>
@@ -5197,19 +5197,19 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499908</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K13" t="n">
-        <v>207.7937882505252</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916673</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601517</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506347</v>
+        <v>817.7432540506345</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5224,25 +5224,25 @@
         <v>1157.632377415578</v>
       </c>
       <c r="S13" t="n">
-        <v>1036.745299076875</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T13" t="n">
-        <v>896.3890301501629</v>
+        <v>896.3890301501621</v>
       </c>
       <c r="U13" t="n">
-        <v>702.0214748968718</v>
+        <v>702.0214748968709</v>
       </c>
       <c r="V13" t="n">
-        <v>534.1088547129035</v>
+        <v>534.1088547129026</v>
       </c>
       <c r="W13" t="n">
-        <v>340.7751374879117</v>
+        <v>340.7751374879107</v>
       </c>
       <c r="X13" t="n">
-        <v>202.3453576408965</v>
+        <v>257.1064341929101</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.1977387366269</v>
+        <v>127.8939596427962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>762.0121945733731</v>
+        <v>1366.779107661972</v>
       </c>
       <c r="C14" t="n">
-        <v>472.9011201637895</v>
+        <v>1077.668033252389</v>
       </c>
       <c r="D14" t="n">
-        <v>192.8998396486222</v>
+        <v>1077.668033252389</v>
       </c>
       <c r="E14" t="n">
-        <v>131.0951888956806</v>
+        <v>775.7049976161045</v>
       </c>
       <c r="F14" t="n">
-        <v>131.0951888956806</v>
+        <v>454.3764911838837</v>
       </c>
       <c r="G14" t="n">
-        <v>131.0951888956806</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0951888956806</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208573</v>
@@ -5279,25 +5279,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>363.2395906796742</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L14" t="n">
         <v>802.100476605503</v>
       </c>
       <c r="M14" t="n">
-        <v>1286.315155699474</v>
+        <v>1195.339642858591</v>
       </c>
       <c r="N14" t="n">
         <v>1664.646514387189</v>
       </c>
       <c r="O14" t="n">
-        <v>2050.493542279931</v>
+        <v>2060.626611700906</v>
       </c>
       <c r="P14" t="n">
-        <v>2369.625951576867</v>
+        <v>2367.485023338699</v>
       </c>
       <c r="Q14" t="n">
-        <v>2555.033718104286</v>
+        <v>2552.892789866119</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
@@ -5309,19 +5309,19 @@
         <v>2329.09116498087</v>
       </c>
       <c r="U14" t="n">
-        <v>2167.028512952474</v>
+        <v>2167.028512952473</v>
       </c>
       <c r="V14" t="n">
         <v>1922.871923106024</v>
       </c>
       <c r="W14" t="n">
-        <v>1653.159677221234</v>
+        <v>1922.871923106024</v>
       </c>
       <c r="X14" t="n">
-        <v>1363.952221000336</v>
+        <v>1922.871923106024</v>
       </c>
       <c r="Y14" t="n">
-        <v>1063.233049833783</v>
+        <v>1667.999962922382</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H15" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
         <v>51.10067436208573</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.10067436208573</v>
+        <v>111.3498832767142</v>
       </c>
       <c r="C16" t="n">
-        <v>51.10067436208573</v>
+        <v>111.3498832767142</v>
       </c>
       <c r="D16" t="n">
         <v>51.10067436208573</v>
@@ -5434,52 +5434,52 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499906</v>
+        <v>83.214087664999</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505251</v>
+        <v>207.793788250525</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601514</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506343</v>
       </c>
       <c r="O16" t="n">
-        <v>1007.182413387207</v>
+        <v>1007.182413387206</v>
       </c>
       <c r="P16" t="n">
         <v>1161.126409956227</v>
       </c>
       <c r="Q16" t="n">
-        <v>1214.331474543591</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
-        <v>1157.632377415578</v>
+        <v>1157.632377415577</v>
       </c>
       <c r="S16" t="n">
         <v>1036.745299076874</v>
       </c>
       <c r="T16" t="n">
-        <v>896.3890301501623</v>
+        <v>896.3890301501615</v>
       </c>
       <c r="U16" t="n">
-        <v>702.0214748968712</v>
+        <v>702.0214748968704</v>
       </c>
       <c r="V16" t="n">
-        <v>534.1088547129028</v>
+        <v>534.1088547129019</v>
       </c>
       <c r="W16" t="n">
-        <v>340.775137487911</v>
+        <v>340.77513748791</v>
       </c>
       <c r="X16" t="n">
-        <v>202.3453576408959</v>
+        <v>202.3453576408948</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.132883090782</v>
+        <v>111.3498832767142</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
-        <v>942.7443621478548</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E17" t="n">
-        <v>715.7657787614938</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F17" t="n">
         <v>469.4217245791957</v>
@@ -5522,16 +5522,16 @@
         <v>875.5927382556528</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.640850310115</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N17" t="n">
-        <v>1762.97220899783</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O17" t="n">
-        <v>2232.444567961697</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P17" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q17" t="n">
         <v>2555.033718104287</v>
@@ -5555,7 +5555,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
         <v>1588.124215583246</v>
@@ -5583,10 +5583,10 @@
         <v>333.4366996419374</v>
       </c>
       <c r="G18" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I18" t="n">
         <v>51.10067436208574</v>
@@ -5653,46 +5653,46 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670347</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672915</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L19" t="n">
-        <v>185.3119415069887</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M19" t="n">
-        <v>303.3054476345904</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N19" t="n">
-        <v>421.7277893841908</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O19" t="n">
-        <v>520.1914358798805</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P19" t="n">
-        <v>583.1599196080183</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q19" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R19" t="n">
         <v>628.266068145054</v>
@@ -5753,10 +5753,10 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>479.048536481048</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L20" t="n">
-        <v>826.9339095659942</v>
+        <v>991.4016840570268</v>
       </c>
       <c r="M20" t="n">
         <v>1384.640850310115</v>
@@ -5765,7 +5765,7 @@
         <v>1762.97220899783</v>
       </c>
       <c r="O20" t="n">
-        <v>2232.444567961697</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P20" t="n">
         <v>2460.60146441775</v>
@@ -5811,16 +5811,16 @@
         <v>753.9971446449797</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H21" t="n">
         <v>119.4829596720247</v>
@@ -5829,7 +5829,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
@@ -5890,7 +5890,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
         <v>52.21328648670347</v>
@@ -5917,13 +5917,13 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N22" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O22" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P22" t="n">
         <v>628.266068145054</v>
@@ -5990,19 +5990,19 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L23" t="n">
-        <v>751.3007196776769</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.539885930765</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N23" t="n">
-        <v>1522.87124461848</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O23" t="n">
-        <v>1992.343603582347</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P23" t="n">
         <v>2220.5005000384</v>
@@ -6057,10 +6057,10 @@
         <v>333.4366996419374</v>
       </c>
       <c r="G24" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I24" t="n">
         <v>51.10067436208574</v>
@@ -6209,37 +6209,37 @@
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133856</v>
+        <v>878.7372736133858</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413121</v>
+        <v>594.5467585413123</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132563</v>
+        <v>308.4034476132565</v>
       </c>
       <c r="H26" t="n">
         <v>105.5428488283221</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487431</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006428</v>
+        <v>262.0593281006429</v>
       </c>
       <c r="K26" t="n">
-        <v>584.4800274945156</v>
+        <v>629.5741583183885</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.739858752425</v>
+        <v>1104.833989576298</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.353483178475</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N26" t="n">
         <v>2086.059300039154</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684951</v>
+        <v>2518.43834268495</v>
       </c>
       <c r="P26" t="n">
         <v>2873.969697313967</v>
@@ -6248,16 +6248,16 @@
         <v>3095.776409173467</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743716</v>
+        <v>3134.316282743715</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991826</v>
+        <v>3077.047982991825</v>
       </c>
       <c r="T26" t="n">
         <v>2982.649712340593</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672344</v>
+        <v>2857.725051672343</v>
       </c>
       <c r="V26" t="n">
         <v>2650.706453186041</v>
@@ -6291,25 +6291,25 @@
         <v>479.7161489848519</v>
       </c>
       <c r="F27" t="n">
-        <v>345.0223509347263</v>
+        <v>359.7349683948307</v>
       </c>
       <c r="G27" t="n">
-        <v>216.2938509580109</v>
+        <v>231.0064684181153</v>
       </c>
       <c r="H27" t="n">
         <v>131.0686109648133</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487431</v>
       </c>
       <c r="J27" t="n">
-        <v>122.9404721879805</v>
+        <v>122.9404721879804</v>
       </c>
       <c r="K27" t="n">
         <v>352.4310247481691</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182848</v>
+        <v>718.2528699182847</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042396</v>
+        <v>252.6345665042392</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836761</v>
+        <v>212.9792725836757</v>
       </c>
       <c r="D28" t="n">
-        <v>189.868055029195</v>
+        <v>189.8680550291947</v>
       </c>
       <c r="E28" t="n">
-        <v>167.81971640827</v>
+        <v>167.8197164082698</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518034</v>
+        <v>145.2997370518032</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374096</v>
+        <v>106.3406640374095</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443959</v>
+        <v>76.92869443443954</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487431</v>
       </c>
       <c r="J28" t="n">
-        <v>62.68632565487432</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K28" t="n">
-        <v>142.3710299493543</v>
+        <v>292.1773302074743</v>
       </c>
       <c r="L28" t="n">
-        <v>242.9781093496138</v>
+        <v>392.7844096077338</v>
       </c>
       <c r="M28" t="n">
-        <v>488.3460736501784</v>
+        <v>638.1523739082984</v>
       </c>
       <c r="N28" t="n">
-        <v>734.1428735727416</v>
+        <v>756.5747156578988</v>
       </c>
       <c r="O28" t="n">
-        <v>959.980978241394</v>
+        <v>982.4128203265514</v>
       </c>
       <c r="P28" t="n">
-        <v>1150.323920142495</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142495</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374629</v>
+        <v>1130.762814374628</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396073</v>
+        <v>1047.013727396072</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295078</v>
+        <v>943.7954498295071</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363639</v>
+        <v>786.5658859363632</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125427</v>
+        <v>655.7912571125421</v>
       </c>
       <c r="W28" t="n">
-        <v>499.595531247698</v>
+        <v>499.5955312476974</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608299</v>
+        <v>398.3037427608294</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708632</v>
+        <v>306.2292595708628</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093979</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D29" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133858</v>
+        <v>878.737273613386</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413123</v>
+        <v>594.5467585413127</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132565</v>
+        <v>308.403447613257</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283221</v>
+        <v>105.542848828322</v>
       </c>
       <c r="I29" t="n">
         <v>62.68632565487432</v>
       </c>
       <c r="J29" t="n">
-        <v>216.9651972767699</v>
+        <v>262.0593281006429</v>
       </c>
       <c r="K29" t="n">
-        <v>584.4800274945155</v>
+        <v>584.4800274945153</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.739858752425</v>
+        <v>1059.739858752424</v>
       </c>
       <c r="M29" t="n">
         <v>1580.353483178475</v>
@@ -6491,22 +6491,22 @@
         <v>3077.047982991826</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340593</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672343</v>
+        <v>2857.725051672344</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186041</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661398</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800648</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994242</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="30">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042392</v>
+        <v>252.6345665042388</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836757</v>
+        <v>212.9792725836754</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291947</v>
+        <v>189.8680550291944</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082698</v>
+        <v>167.8197164082696</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518032</v>
+        <v>145.299737051803</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374095</v>
+        <v>106.3406640374093</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443954</v>
+        <v>76.92869443443948</v>
       </c>
       <c r="I31" t="n">
         <v>62.68632565487432</v>
       </c>
       <c r="J31" t="n">
-        <v>62.68632565487432</v>
+        <v>131.198684289868</v>
       </c>
       <c r="K31" t="n">
-        <v>96.29051339951772</v>
+        <v>292.1773302074744</v>
       </c>
       <c r="L31" t="n">
-        <v>324.2720509727401</v>
+        <v>392.7844096077339</v>
       </c>
       <c r="M31" t="n">
-        <v>569.6400152733047</v>
+        <v>526.1165219036953</v>
       </c>
       <c r="N31" t="n">
-        <v>815.4368151958679</v>
+        <v>771.9133218262587</v>
       </c>
       <c r="O31" t="n">
-        <v>997.7514264949124</v>
+        <v>870.3769683219483</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.71991022305</v>
+        <v>1060.719910223049</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142494</v>
+        <v>1150.323920142493</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374628</v>
+        <v>1130.762814374627</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396072</v>
+        <v>1047.013727396071</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295071</v>
+        <v>943.7954498295063</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363632</v>
+        <v>786.5658859363625</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125421</v>
+        <v>655.7912571125414</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476974</v>
+        <v>499.5955312476968</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608294</v>
+        <v>398.3037427608289</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708628</v>
+        <v>306.2292595708623</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6701,22 @@
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>507.7241781424431</v>
+        <v>643.1323473443254</v>
       </c>
       <c r="L32" t="n">
-        <v>886.0759409838042</v>
+        <v>1126.425889631154</v>
       </c>
       <c r="M32" t="n">
-        <v>1414.723276438775</v>
+        <v>1655.073225086124</v>
       </c>
       <c r="N32" t="n">
-        <v>1928.462804328373</v>
+        <v>2033.40458377384</v>
       </c>
       <c r="O32" t="n">
-        <v>2368.875558003089</v>
+        <v>2473.817337448556</v>
       </c>
       <c r="P32" t="n">
-        <v>2732.440623661025</v>
+        <v>2837.382403106492</v>
       </c>
       <c r="Q32" t="n">
         <v>2962.281046549444</v>
@@ -6765,7 +6765,7 @@
         <v>477.2069159529498</v>
       </c>
       <c r="F33" t="n">
-        <v>342.5131179028242</v>
+        <v>357.2257353629286</v>
       </c>
       <c r="G33" t="n">
         <v>228.4972353862132</v>
@@ -6865,16 +6865,16 @@
         <v>329.7965289697576</v>
       </c>
       <c r="M34" t="n">
-        <v>447.7900350973594</v>
+        <v>583.1982042992418</v>
       </c>
       <c r="N34" t="n">
-        <v>566.2123768469597</v>
+        <v>701.6205460488421</v>
       </c>
       <c r="O34" t="n">
-        <v>720.6510667647948</v>
+        <v>818.2887877131578</v>
       </c>
       <c r="P34" t="n">
-        <v>919.027719694815</v>
+        <v>1016.665440643178</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6938,22 +6938,22 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>991.4016840570268</v>
       </c>
       <c r="M35" t="n">
-        <v>1104.364130017708</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N35" t="n">
-        <v>1482.695488705424</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O35" t="n">
-        <v>1952.16784766929</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
         <v>2555.033718104287</v>
@@ -7008,7 +7008,7 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208574</v>
@@ -7105,16 +7105,16 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>450.0250734908598</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>548.4887199865494</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R37" t="n">
         <v>629.3786802696717</v>
@@ -7169,7 +7169,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
@@ -7181,19 +7181,19 @@
         <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1144.539885930764</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.87124461848</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.500500038399</v>
+        <v>2296.133689926717</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7245,16 +7245,16 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D40" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E40" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S40" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T40" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V40" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670034</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X40" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7406,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
@@ -7415,22 +7415,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.173075819082</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1598.504434506797</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O41" t="n">
-        <v>2067.976793470664</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P41" t="n">
-        <v>2296.133689926717</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7470,7 +7470,7 @@
         <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
         <v>482.8431151521678</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C43" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D43" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E43" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N43" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O43" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P43" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q43" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R43" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S43" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T43" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V43" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670033</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X43" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575752</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259238</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707066</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>915.7684941687087</v>
+        <v>875.5927382556526</v>
       </c>
       <c r="M44" t="n">
-        <v>1309.007660421797</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>2156.811378073378</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7691,7 +7691,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G45" t="n">
         <v>219.4208171253267</v>
@@ -7731,7 +7731,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,22 +7749,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
         <v>1267.641586535707</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749102</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
@@ -7816,40 +7816,40 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458449</v>
       </c>
       <c r="O46" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415346</v>
       </c>
       <c r="P46" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="Q46" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="R46" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808921</v>
       </c>
       <c r="T46" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041031</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007353</v>
       </c>
       <c r="V46" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666901</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916214</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945293</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433864</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>369.9204764532252</v>
+        <v>369.9204764532257</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -8061,13 +8061,13 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>223.824793730077</v>
       </c>
       <c r="M3" t="n">
-        <v>347.1489277105796</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>600.6529294339227</v>
+        <v>600.652929433923</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>369.9204764532252</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>542.9595789155856</v>
+        <v>418.7652167305339</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8298,13 +8298,13 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>223.8247937300766</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>347.14892771058</v>
       </c>
       <c r="N6" t="n">
-        <v>600.6529294339227</v>
+        <v>600.652929433923</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8532,16 +8532,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>604.2880128282179</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -11376,7 +11376,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>179.66731563165</v>
+        <v>8.868342374738859</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9434052799212</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436308</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825896</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250303</v>
+        <v>89.82535758250306</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790351</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.6467168254819</v>
+        <v>59.64671682548193</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126135</v>
+        <v>58.59446668126138</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944766</v>
+        <v>59.06139100944769</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.33609373079553</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348592</v>
+        <v>65.88446135348595</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831527</v>
+        <v>50.86655653831529</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>54.21346578649445</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.52420708938598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2012677100158</v>
       </c>
       <c r="E14" t="n">
-        <v>237.756801034509</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0484892653209</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>237.5986042436309</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>45.38873887308273</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.01347094109371</v>
+        <v>89.82535758250312</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790354</v>
+        <v>76.0253524279036</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548193</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126138</v>
+        <v>58.59446668126144</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944769</v>
+        <v>59.06139100944775</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079553</v>
+        <v>75.33609373079558</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348595</v>
+        <v>65.884461353486</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831529</v>
+        <v>50.86655653831535</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>37.83483018407378</v>
       </c>
     </row>
     <row r="17">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1166664.895619039</v>
+        <v>1166664.895619038</v>
       </c>
     </row>
     <row r="7">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746741</v>
+        <v>9743.038208746704</v>
       </c>
       <c r="E3" t="n">
-        <v>107390.8010757636</v>
+        <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193919</v>
+        <v>59387.68618193923</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732374</v>
+        <v>43541.16890732376</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>194229.03306035</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
         <v>118181.7253353295</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26522,16 +26522,16 @@
         <v>-423417.9640436668</v>
       </c>
       <c r="C6" t="n">
-        <v>-257888.0505930159</v>
+        <v>-257888.0505930158</v>
       </c>
       <c r="D6" t="n">
-        <v>-261084.8321789513</v>
+        <v>-261084.8321789512</v>
       </c>
       <c r="E6" t="n">
-        <v>-272134.5140667026</v>
+        <v>-272386.9100813394</v>
       </c>
       <c r="F6" t="n">
-        <v>-164743.712990939</v>
+        <v>-164996.1090055757</v>
       </c>
       <c r="G6" t="n">
         <v>-287813.6236148212</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,7 +26707,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K2" t="n">
         <v>128.6610688615787</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662146</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662146</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26811,7 +26811,7 @@
         <v>638.7584295260717</v>
       </c>
       <c r="J4" t="n">
-        <v>783.579070685929</v>
+        <v>783.5790706859289</v>
       </c>
       <c r="K4" t="n">
         <v>783.579070685929</v>
@@ -26823,10 +26823,10 @@
         <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742403</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415468</v>
+        <v>54.42646113415471</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415468</v>
+        <v>54.42646113415471</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662146</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877584</v>
+        <v>31.36541289877573</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742403</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415468</v>
+        <v>54.42646113415471</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662146</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877584</v>
+        <v>31.36541289877573</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>218.7746844214885</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>333.0719289664357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,19 +27458,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16.25373282367771</v>
+        <v>34.55234010506638</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>155.3231581697162</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>137.3826373279476</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>191.1190123892059</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27670,16 +27670,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>147.2437391011244</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27698,13 +27698,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>112.4116074919247</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>184.2134605188295</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27828,13 +27828,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>201.8861672240931</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27859,19 +27859,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>131.9887049952661</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>141.5252450056346</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>106.4411796807436</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.51673623083873</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>139.9680222153108</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28059,19 +28059,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>198.976013297129</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J11" t="n">
-        <v>79.4964799815547</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="L11" t="n">
-        <v>91.89445741503299</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>91.89445741503299</v>
+        <v>81.65903375748303</v>
       </c>
       <c r="N11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503299</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>91.89445741503299</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503299</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="L14" t="n">
-        <v>91.89445741503296</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>91.89445741503296</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="O14" t="n">
-        <v>81.65903375748292</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503296</v>
+        <v>79.49647998155564</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
     </row>
     <row r="15">
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I15" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.8944574150329</v>
       </c>
     </row>
     <row r="17">
@@ -28594,19 +28594,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>166.1290651424569</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>116.9787331327008</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28725,13 +28725,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D19" t="n">
-        <v>152.6650248714419</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
@@ -28740,7 +28740,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>156.1709124946336</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.71373413187378</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28825,22 +28825,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>116.9787331327008</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>14.5654912855037</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28962,10 +28962,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D22" t="n">
-        <v>152.6650248714419</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>45.56176619902594</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>38.15196793284785</v>
@@ -29062,10 +29062,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L23" t="n">
-        <v>40.58157162934998</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,10 +29074,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>40.58157162934964</v>
       </c>
       <c r="Q23" t="n">
         <v>166.1290651424569</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K26" t="n">
-        <v>83.11144176675768</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615786</v>
+        <v>83.11144176675703</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="27">
@@ -29363,13 +29363,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>14.56549128550336</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K28" t="n">
-        <v>46.54597631296623</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N28" t="n">
-        <v>128.6610688615786</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="P28" t="n">
-        <v>128.6610688615786</v>
+        <v>106.0026425129339</v>
       </c>
       <c r="Q28" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615786</v>
+        <v>128.6610688615787</v>
       </c>
     </row>
     <row r="29">
@@ -29533,10 +29533,10 @@
         <v>128.6610688615787</v>
       </c>
       <c r="J29" t="n">
-        <v>83.11144176675748</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675722</v>
       </c>
       <c r="L29" t="n">
         <v>128.6610688615787</v>
@@ -29691,25 +29691,25 @@
         <v>128.6610688615787</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="L31" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>128.6610688615787</v>
+        <v>15.49354158420175</v>
       </c>
       <c r="N31" t="n">
         <v>128.6610688615787</v>
       </c>
       <c r="O31" t="n">
-        <v>84.69794424581295</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Q31" t="n">
         <v>128.6610688615787</v>
@@ -29773,16 +29773,16 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
-        <v>30.77413106708582</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="M32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="N32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>136.7759284867499</v>
@@ -29791,7 +29791,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708596</v>
       </c>
       <c r="R32" t="n">
         <v>136.7759284867499</v>
@@ -29837,10 +29837,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="G33" t="n">
-        <v>14.56549128550338</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29937,19 +29937,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>56.54044790115697</v>
+        <v>18.38847996830911</v>
       </c>
       <c r="P34" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.7759284867499</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30010,10 +30010,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="P35" t="n">
-        <v>116.9787331327011</v>
-      </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>89.73190363910518</v>
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>28.58311525926162</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30253,22 +30253,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>40.58157162934947</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I39" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>152.0796990554076</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.61123256118242</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30487,25 +30487,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M41" t="n">
-        <v>116.9787331327004</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>40.5815716293491</v>
+      </c>
+      <c r="R41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="R41" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30542,10 +30542,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="E42" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>152.0796990554076</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>45.56176619902594</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
@@ -30724,17 +30724,17 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>116.9787331327012</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30785,10 +30785,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G45" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>151.6127747272213</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>46.68561682995367</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.61123256118242</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>191.0974724791785</v>
+        <v>191.097472479179</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34781,13 +34781,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>111.2493601589292</v>
       </c>
       <c r="M3" t="n">
-        <v>231.6650251489397</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662146</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>191.0974724791785</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>351.3993667524709</v>
+        <v>227.2050045674193</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>111.2493601589289</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>231.6650251489401</v>
       </c>
       <c r="N6" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662146</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>497.5728717605097</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.222282277318</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>334.4604897835004</v>
       </c>
       <c r="L11" t="n">
-        <v>443.2938241675039</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>489.1057364585562</v>
+        <v>478.8703128010062</v>
       </c>
       <c r="N11" t="n">
         <v>474.0473449783822</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>399.9798962764814</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.2805722499189</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927805</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506399</v>
+        <v>32.43779121506396</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995213</v>
@@ -35586,7 +35586,7 @@
         <v>155.498986433354</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218514</v>
+        <v>53.74248948218511</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>334.4604897835003</v>
       </c>
       <c r="L14" t="n">
-        <v>443.2938241675039</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>489.1057364585561</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>474.0473449783821</v>
       </c>
       <c r="O14" t="n">
-        <v>389.7444726189314</v>
+        <v>399.9798962764813</v>
       </c>
       <c r="P14" t="n">
-        <v>322.3559689868039</v>
+        <v>309.9579915533266</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.2805722499188</v>
+        <v>187.2805722499187</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2.162553775927719</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506396</v>
+        <v>32.4377912150639</v>
       </c>
       <c r="K16" t="n">
-        <v>125.8380813995213</v>
+        <v>125.8380813995212</v>
       </c>
       <c r="L16" t="n">
         <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
-        <v>211.0798171398832</v>
+        <v>211.0798171398831</v>
       </c>
       <c r="N16" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
-        <v>191.3526861985579</v>
+        <v>191.3526861985578</v>
       </c>
       <c r="P16" t="n">
-        <v>155.498986433354</v>
+        <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218511</v>
+        <v>53.74248948218505</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>517.5284318949278</v>
       </c>
       <c r="M17" t="n">
-        <v>514.1900121762239</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O17" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36021,13 +36021,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.123850630926996</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13.40989854128532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36060,10 +36060,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.56176619902593</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>359.5447655011682</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>468.378099885172</v>
       </c>
       <c r="M20" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36258,10 +36258,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>1.123850630926996</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N22" t="n">
         <v>119.6185270197983</v>
@@ -36294,7 +36294,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
-        <v>109.1662952173469</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L23" t="n">
-        <v>391.9809383818209</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36370,10 +36370,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011206</v>
       </c>
       <c r="Q23" t="n">
         <v>261.5151799773428</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573419</v>
+        <v>201.386871157342</v>
       </c>
       <c r="K26" t="n">
-        <v>325.6774741352251</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140495</v>
+        <v>480.0604356140497</v>
       </c>
       <c r="M26" t="n">
         <v>525.8723479051018</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249278</v>
+        <v>465.2643293301062</v>
       </c>
       <c r="O26" t="n">
         <v>436.7465077230271</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333495</v>
+        <v>359.1225804333496</v>
       </c>
       <c r="Q26" t="n">
         <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247344</v>
+        <v>38.9291652224735</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.20440266160969</v>
       </c>
       <c r="K28" t="n">
-        <v>80.48960029745453</v>
+        <v>162.604692846067</v>
       </c>
       <c r="L28" t="n">
         <v>101.6233125255146</v>
@@ -36762,13 +36762,13 @@
         <v>247.8464285864289</v>
       </c>
       <c r="N28" t="n">
-        <v>248.279595881377</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
         <v>228.1192976451036</v>
       </c>
       <c r="P28" t="n">
-        <v>192.2655978798996</v>
+        <v>169.6071715312549</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>155.8372440625208</v>
+        <v>201.386871157342</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300461</v>
+        <v>325.6774741352247</v>
       </c>
       <c r="L29" t="n">
         <v>480.0604356140497</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051018</v>
+        <v>525.8723479051019</v>
       </c>
       <c r="N29" t="n">
         <v>510.8139564249279</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7465077230271</v>
+        <v>436.7465077230272</v>
       </c>
       <c r="P29" t="n">
         <v>359.1225804333496</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964645</v>
+        <v>224.0471836964646</v>
       </c>
       <c r="R29" t="n">
-        <v>38.9291652224735</v>
+        <v>38.92916522247356</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.20440266160975</v>
       </c>
       <c r="K31" t="n">
-        <v>33.9436239844883</v>
+        <v>162.6046928460671</v>
       </c>
       <c r="L31" t="n">
-        <v>230.2843813870933</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>247.8464285864289</v>
+        <v>134.678901309052</v>
       </c>
       <c r="N31" t="n">
-        <v>248.279595881377</v>
+        <v>248.2795958813771</v>
       </c>
       <c r="O31" t="n">
-        <v>184.1561730293379</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
-        <v>63.604529018321</v>
+        <v>192.2655978798998</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873083</v>
+        <v>90.50910092873089</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684674</v>
+        <v>379.3419608552173</v>
       </c>
       <c r="L32" t="n">
-        <v>382.1734978195568</v>
+        <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
-        <v>518.9288160500992</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
         <v>444.8613673481983</v>
@@ -37087,7 +37087,7 @@
         <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.1620433216358</v>
+        <v>126.1602459019718</v>
       </c>
       <c r="R32" t="n">
         <v>47.04402484764472</v>
@@ -37233,19 +37233,19 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>255.9612882116001</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>155.9986766846819</v>
+        <v>117.846708751834</v>
       </c>
       <c r="P34" t="n">
         <v>200.3804575050709</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.62396055390205</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>468.378099885172</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37318,13 +37318,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>347.440244704472</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
-        <v>119.6185270197983</v>
+        <v>148.20164227906</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,22 +37549,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>437.7928506728726</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q38" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.123850630926996</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37719,10 +37719,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.45926462833456</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
-        <v>514.1900121762236</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O41" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.123850630926996</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N43" t="n">
         <v>119.6185270197983</v>
@@ -37953,7 +37953,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>109.1662952173469</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>391.9809383818204</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>499.1316206960504</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039053</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
@@ -38038,7 +38038,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.123850630926996</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>119.6185270197983</v>
+        <v>166.304143849752</v>
       </c>
       <c r="O46" t="n">
         <v>99.45822878352493</v>
@@ -38193,10 +38193,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.45926462833456</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
